--- a/SLNO.xlsx
+++ b/SLNO.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF6D23-8B9B-48B9-821F-6E542F539CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7F943-FC84-4E1C-B8F8-528BB2B6059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30480" yWindow="2145" windowWidth="28770" windowHeight="15450" xr2:uid="{477A73C8-0DDD-4193-B12A-402B07A14853}"/>
+    <workbookView xWindow="51490" yWindow="1710" windowWidth="25060" windowHeight="11160" activeTab="2" xr2:uid="{477A73C8-0DDD-4193-B12A-402B07A14853}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Vykat" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +58,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>PIC</t>
   </si>
   <si>
@@ -78,16 +77,68 @@
   </si>
   <si>
     <t>12/27/24 PDUFA</t>
+  </si>
+  <si>
+    <t>Vykat (diazoxide)</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Vykat</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Prader-Walli Syndrome</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -195,10 +246,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,7 +258,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -214,8 +265,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,138 +615,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52EE98-472D-41A7-BE97-A667D3867873}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.26953125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>38.871594000000002</v>
+        <v>45.703811000000002</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>1904.708106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <v>2970.747715</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>57.024+209.099+28.482</f>
-        <v>294.60500000000002</v>
+        <f>87.928+203.509+27.211</f>
+        <v>318.64800000000002</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>49.828000000000003</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>1610.103106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+        <v>2701.9277149999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
         <v>600.53399999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2">
         <v>319.66199999999998</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Vykat!A1" display="Vykat (diazoxide)" xr:uid="{3035D599-4D77-40E5-8984-A056F4EB46CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F719FA-7900-4302-A1F2-38B5BAF3BCBE}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{83126392-9D75-4AC7-9EF9-E8F41B951905}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F9C73-DE62-41EA-85D1-0BBC92E2F7EA}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="8.90625" style="3" customWidth="1"/>
+    <col min="9" max="20" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="3">
+        <f>+H2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:T2" si="0">+I2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="16">
+        <f>350000/30</f>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:O3" si="1">350000/30</f>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+      <c r="O3" s="16">
+        <f t="shared" si="1"/>
+        <v>11666.666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="16">
+        <v>300</v>
+      </c>
+      <c r="I6" s="16">
+        <v>900</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1800</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2100</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2200</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2300</v>
+      </c>
+      <c r="O6" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="16">
+        <f>+H6*0.7</f>
+        <v>210</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" ref="I7:O7" si="2">+I6*0.7</f>
+        <v>630</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="2"/>
+        <v>1470</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="2"/>
+        <v>1540</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="2"/>
+        <v>1610</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <f>NPV(I11,H7:O7)</f>
+        <v>5461.7484382899638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="15">
+        <f>+I12/46</f>
+        <v>118.73366170195574</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D89C553B-FA88-4A91-8A74-35171BA91406}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>